--- a/Basededados/ITALY_S1_S2.xlsx
+++ b/Basededados/ITALY_S1_S2.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Fora</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
